--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2485.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2485.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.292649176525402</v>
+        <v>1.604577898979187</v>
       </c>
       <c r="B1">
-        <v>3.465721522229828</v>
+        <v>1.486402750015259</v>
       </c>
       <c r="C1">
-        <v>4.339941398044338</v>
+        <v>4.741234302520752</v>
       </c>
       <c r="D1">
-        <v>3.450034571602748</v>
+        <v>1.403598427772522</v>
       </c>
       <c r="E1">
-        <v>1.844348171663795</v>
+        <v>0.6569319367408752</v>
       </c>
     </row>
   </sheetData>
